--- a/list1.xlsx
+++ b/list1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>City</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Los Angelos</t>
   </si>
   <si>
-    <t>Tampa</t>
-  </si>
-  <si>
     <t>Cleveland</t>
   </si>
   <si>
@@ -53,10 +50,10 @@
     <t>19TTY</t>
   </si>
   <si>
-    <t>RX495</t>
-  </si>
-  <si>
     <t>H7332</t>
+  </si>
+  <si>
+    <t>York</t>
   </si>
 </sst>
 </file>
@@ -377,10 +374,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,15 +419,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5922</v>
       </c>
     </row>
   </sheetData>
